--- a/bots/crawl_ch/output/toilet_coop_2022-09-14.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Die grüne Alternative</t>
+          <t>Gratisflasche Amarone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -531,109 +531,107 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6283679</t>
+          <t>6817200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-decor-16-rollen/p/6817200</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>13</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.75/1Rol</t>
+          <t>10.00/1ST</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.50 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen 54% Aktion 10.00 Schweizer Franken statt 22.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,113 +640,115 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.75/1Rol</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6817200</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-decor-16-rollen/p/6817200</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>140ST</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.02/1ST</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Zewa</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10.00/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen 54% Aktion 10.00 Schweizer Franken statt 22.00 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -894,180 +894,180 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.03/1ST</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>4x 60ST</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1092,140 +1092,140 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>40ST</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4x 60ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 4x  60ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -1980,48 +1980,50 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6289143</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/oecoplan-papiertaschentuecher-special-edition-calendula-box-3x80-stueck/p/6289143</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>240ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>90ST</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2031,7 +2033,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2041,39 +2043,39 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>90ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -2084,17 +2086,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2104,7 +2106,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2119,185 +2121,185 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.18/1ST</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.12/1ST</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2307,7 +2309,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2317,234 +2319,234 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>144ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
+          <t>9Rol</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6283677</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.46/1Rol</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
@@ -2615,123 +2617,123 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6283677</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.46/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2741,7 +2743,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2756,85 +2758,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-14 07:15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>6727164</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>80ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2022-09-14 07:15:13</t>
+          <t>2022-09-14 21:00:20</t>
         </is>
       </c>
     </row>
